--- a/trade_balance.xlsx
+++ b/trade_balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solovyev_m/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB397FE-7CC8-BF45-A2A0-97889E6E7A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF106F6-BA96-0F4E-A363-E5E2C63B8DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="680" windowWidth="16360" windowHeight="14760" xr2:uid="{99E757CB-DF67-0445-B1D7-0ED721CB1A7D}"/>
+    <workbookView xWindow="5760" yWindow="680" windowWidth="12580" windowHeight="13980" xr2:uid="{3FE24377-3689-5042-A106-9F7B8F9C11F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Ежемесячные" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_QR3">[1]Control!$C$4</definedName>
     <definedName name="_QR4">[1]Control!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullPrecision="0"/>
+  <calcPr calcId="162913" fullPrecision="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="42">
   <si>
     <t>(по методологии платежного баланса)</t>
   </si>
@@ -167,7 +167,7 @@
     <t>в % к предыду-щему году</t>
   </si>
   <si>
-    <t>Дата последнего обновления: 11 июля 2025 года.</t>
+    <t>Дата последнего обновления: 11 августа 2025 года.</t>
   </si>
 </sst>
 </file>
@@ -182,12 +182,12 @@
   <fonts count="6">
     <font>
       <sz val="10"/>
-      <name val="Times New Roman CYR"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman CYR"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
     <font>
@@ -210,7 +210,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman CYR"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -222,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -565,9 +565,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -589,55 +587,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -874,27 +829,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,7 +844,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,7 +898,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{FA16270B-85A6-0D42-B150-3AF7EB0603A5}"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{E49E38AE-52DD-AF4D-BE66-50546233D138}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1367,11 +1301,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C259214-0156-4E48-963D-DF4E142A1AC3}">
-  <dimension ref="A1:Q355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD57D3-EDCA-0849-9982-46501A20EB55}">
+  <dimension ref="A1:Q356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="C344" sqref="C344:Q348"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="P347" sqref="P347:Q349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1381,46 +1315,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:17" ht="16">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="16">
       <c r="B3" s="12"/>
@@ -1446,10 +1380,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14" thickBot="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1473,16 +1407,16 @@
       <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="97" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -1491,10 +1425,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="97" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="17" t="s">
@@ -1503,7 +1437,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="106" t="s">
+      <c r="O6" s="99" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="17" t="s">
@@ -1512,12 +1446,12 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="85" thickBot="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="101" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +1464,8 @@
       <c r="H7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="105"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="98"/>
       <c r="K7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1478,7 @@
       <c r="N7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="107"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="20" t="s">
         <v>5</v>
       </c>
@@ -19527,10 +19461,10 @@
         <v>25</v>
       </c>
       <c r="C347" s="32">
-        <v>33748</v>
+        <v>34059</v>
       </c>
       <c r="D347" s="5">
-        <v>99</v>
+        <v>99.9</v>
       </c>
       <c r="E347" s="43" t="s">
         <v>12</v>
@@ -19545,10 +19479,10 @@
         <v>12</v>
       </c>
       <c r="I347" s="33">
-        <v>24711</v>
+        <v>24857</v>
       </c>
       <c r="J347" s="5">
-        <v>110.7</v>
+        <v>111.3</v>
       </c>
       <c r="K347" s="43" t="s">
         <v>12</v>
@@ -19563,7 +19497,7 @@
         <v>12</v>
       </c>
       <c r="O347" s="33">
-        <v>9037</v>
+        <v>9201</v>
       </c>
       <c r="P347" s="43" t="s">
         <v>12</v>
@@ -19572,103 +19506,156 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="14" thickBot="1">
-      <c r="A348" s="35">
+    <row r="348" spans="1:17">
+      <c r="A348" s="30">
         <v>2025</v>
       </c>
-      <c r="B348" s="36" t="s">
+      <c r="B348" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C348" s="37">
-        <v>33094</v>
-      </c>
-      <c r="D348" s="38">
-        <v>90.3</v>
-      </c>
-      <c r="E348" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F348" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G348" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H348" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I348" s="40">
-        <v>24375</v>
-      </c>
-      <c r="J348" s="38">
-        <v>99.4</v>
-      </c>
-      <c r="K348" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="L348" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="M348" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N348" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O348" s="40">
-        <v>8718</v>
-      </c>
-      <c r="P348" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q348" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="349" spans="1:17">
-      <c r="A349" s="91"/>
-      <c r="B349" s="92"/>
-      <c r="C349" s="93"/>
-      <c r="D349" s="94"/>
-      <c r="E349" s="93"/>
-      <c r="F349" s="94"/>
-      <c r="G349" s="93"/>
-      <c r="H349" s="94"/>
-      <c r="I349" s="93"/>
-      <c r="J349" s="94"/>
-      <c r="K349" s="93"/>
-      <c r="L349" s="94"/>
-      <c r="M349" s="93"/>
-      <c r="N349" s="94"/>
-      <c r="O349" s="93"/>
-      <c r="P349" s="93"/>
-      <c r="Q349" s="93"/>
+      <c r="C348" s="32">
+        <v>33149</v>
+      </c>
+      <c r="D348" s="5">
+        <v>90.4</v>
+      </c>
+      <c r="E348" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G348" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H348" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I348" s="33">
+        <v>24408</v>
+      </c>
+      <c r="J348" s="5">
+        <v>99.6</v>
+      </c>
+      <c r="K348" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L348" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M348" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N348" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O348" s="33">
+        <v>8741</v>
+      </c>
+      <c r="P348" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q348" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" ht="14" thickBot="1">
+      <c r="A349" s="35">
+        <v>2025</v>
+      </c>
+      <c r="B349" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C349" s="37">
+        <v>32837</v>
+      </c>
+      <c r="D349" s="38">
+        <v>92</v>
+      </c>
+      <c r="E349" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F349" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I349" s="40">
+        <v>23578</v>
+      </c>
+      <c r="J349" s="38">
+        <v>98.7</v>
+      </c>
+      <c r="K349" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L349" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M349" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N349" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O349" s="40">
+        <v>9259</v>
+      </c>
+      <c r="P349" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q349" s="41" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="350" spans="1:17">
-      <c r="A350" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="A350" s="84"/>
+      <c r="B350" s="85"/>
+      <c r="C350" s="86"/>
+      <c r="D350" s="87"/>
+      <c r="E350" s="86"/>
+      <c r="F350" s="87"/>
+      <c r="G350" s="86"/>
+      <c r="H350" s="87"/>
+      <c r="I350" s="86"/>
+      <c r="J350" s="87"/>
+      <c r="K350" s="86"/>
+      <c r="L350" s="87"/>
+      <c r="M350" s="86"/>
+      <c r="N350" s="87"/>
+      <c r="O350" s="86"/>
+      <c r="P350" s="86"/>
+      <c r="Q350" s="86"/>
     </row>
     <row r="351" spans="1:17">
       <c r="A351" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:17">
       <c r="A352" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="4" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="4"/>
-    </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="4"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -19690,11 +19677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D9FF89-9805-A44C-A08A-1F91940D7C39}">
-  <dimension ref="A1:Q138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39069ACF-768C-9843-BCD6-97C5B432D04C}">
+  <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132:Q132"/>
+      <selection activeCell="C133" sqref="C133:O133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -19704,46 +19691,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:17" ht="16">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="4" spans="1:17" ht="14" thickBot="1">
       <c r="P4" s="46"/>
@@ -19752,10 +19739,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14" thickBot="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
@@ -19779,16 +19766,16 @@
       <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="97" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -19797,10 +19784,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="97" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="17" t="s">
@@ -19809,7 +19796,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="18"/>
-      <c r="O6" s="106" t="s">
+      <c r="O6" s="99" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="17" t="s">
@@ -19818,12 +19805,12 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="85" thickBot="1">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="105"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="20" t="s">
         <v>5</v>
       </c>
@@ -19836,8 +19823,8 @@
       <c r="H7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="105"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="98"/>
       <c r="K7" s="20" t="s">
         <v>5</v>
       </c>
@@ -19850,7 +19837,7 @@
       <c r="N7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="107"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="20" t="s">
         <v>5</v>
       </c>
@@ -26430,84 +26417,137 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="14" thickBot="1">
-      <c r="A132" s="84">
+    <row r="132" spans="1:17">
+      <c r="A132" s="47">
         <v>2025</v>
       </c>
-      <c r="B132" s="85" t="s">
+      <c r="B132" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C132" s="86">
+      <c r="C132" s="28">
         <v>96007</v>
       </c>
-      <c r="D132" s="87">
+      <c r="D132" s="26">
         <v>94.2</v>
       </c>
-      <c r="E132" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="86">
+      <c r="E132" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="28">
         <v>65900</v>
       </c>
-      <c r="J132" s="87">
+      <c r="J132" s="26">
         <v>98.9</v>
       </c>
-      <c r="K132" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="L132" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="M132" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="N132" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="O132" s="86">
+      <c r="K132" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L132" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M132" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O132" s="28">
         <v>30106</v>
       </c>
-      <c r="P132" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q132" s="90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133" s="45" t="s">
-        <v>14</v>
+      <c r="P132" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q132" s="51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="14" thickBot="1">
+      <c r="A133" s="35">
+        <v>2025</v>
+      </c>
+      <c r="B133" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="40">
+        <v>100045</v>
+      </c>
+      <c r="D133" s="38">
+        <v>94</v>
+      </c>
+      <c r="E133" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="40">
+        <v>72844</v>
+      </c>
+      <c r="J133" s="38">
+        <v>103</v>
+      </c>
+      <c r="K133" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L133" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M133" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N133" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O133" s="40">
+        <v>27201</v>
+      </c>
+      <c r="P133" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q133" s="58" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="45" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
-      <c r="A136" s="4" t="s">
+    <row r="137" spans="1:17">
+      <c r="A137" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
-      <c r="A137" s="4"/>
-    </row>
     <row r="138" spans="1:17">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -26529,7 +26569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F9468C-3999-C34E-BDF7-E3837D4CD09E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E53141-EB42-4547-B79C-2D2B3CCECB09}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -26543,44 +26583,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:16" ht="16">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="14" thickBot="1">
       <c r="O4" s="3"/>
@@ -26615,13 +26655,13 @@
       <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="97" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -26630,10 +26670,10 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="106" t="s">
+      <c r="H6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="I6" s="97" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -26642,7 +26682,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="18"/>
-      <c r="N6" s="106" t="s">
+      <c r="N6" s="99" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="17" t="s">
@@ -26651,9 +26691,9 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" ht="57" thickBot="1">
-      <c r="A7" s="112"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="105"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="20" t="s">
         <v>5</v>
       </c>
@@ -26666,8 +26706,8 @@
       <c r="G7" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="105"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="98"/>
       <c r="J7" s="20" t="s">
         <v>5</v>
       </c>
@@ -26680,7 +26720,7 @@
       <c r="M7" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="107"/>
+      <c r="N7" s="100"/>
       <c r="O7" s="20" t="s">
         <v>5</v>
       </c>

--- a/trade_balance.xlsx
+++ b/trade_balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/solovyev_m/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B6E34D-DC8F-814E-A4FD-B84FF791D89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D2C56E-56C5-3C40-8CE3-E632805FD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17280" xr2:uid="{A29327D5-9E95-F24D-A815-BC5025639717}"/>
+    <workbookView xWindow="5740" yWindow="680" windowWidth="15040" windowHeight="14640" xr2:uid="{0C6D5962-DC7D-6A41-A40F-CEE258311A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ежемесячные" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="42">
   <si>
     <t>(по методологии платежного баланса)</t>
   </si>
@@ -167,7 +167,7 @@
     <t>в % к предыду-щему году</t>
   </si>
   <si>
-    <t>Дата последнего обновления: 11 сентября 2025 года.</t>
+    <t>Дата последнего обновления: 13 октября 2025 года.</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{65CC2B1E-8BEA-644C-B29F-96D381A01D9C}"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{6134404C-BC59-C843-9ADF-A90F77039742}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,11 +1301,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9657212-5235-234B-BEFE-7DC8FC2F408E}">
-  <dimension ref="A1:Q357"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AA32E0-3C1D-FD4B-970B-AC315C96BA09}">
+  <dimension ref="A1:Q358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="K343" sqref="K343"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="W363" sqref="W363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -18666,7 +18666,7 @@
         <v>22</v>
       </c>
       <c r="C332" s="25">
-        <v>28598</v>
+        <v>28601</v>
       </c>
       <c r="D332" s="26">
         <v>87</v>
@@ -18684,10 +18684,10 @@
         <v>12</v>
       </c>
       <c r="I332" s="28">
-        <v>21325</v>
+        <v>21452</v>
       </c>
       <c r="J332" s="26">
-        <v>88.5</v>
+        <v>89</v>
       </c>
       <c r="K332" s="42" t="s">
         <v>12</v>
@@ -18702,7 +18702,7 @@
         <v>12</v>
       </c>
       <c r="O332" s="28">
-        <v>7273</v>
+        <v>7149</v>
       </c>
       <c r="P332" s="42" t="s">
         <v>12</v>
@@ -18719,7 +18719,7 @@
         <v>23</v>
       </c>
       <c r="C333" s="32">
-        <v>31771</v>
+        <v>31774</v>
       </c>
       <c r="D333" s="5">
         <v>103.8</v>
@@ -18737,10 +18737,10 @@
         <v>12</v>
       </c>
       <c r="I333" s="33">
-        <v>22716</v>
+        <v>22831</v>
       </c>
       <c r="J333" s="5">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
       <c r="K333" s="43" t="s">
         <v>12</v>
@@ -18755,7 +18755,7 @@
         <v>12</v>
       </c>
       <c r="O333" s="33">
-        <v>9055</v>
+        <v>8943</v>
       </c>
       <c r="P333" s="43" t="s">
         <v>12</v>
@@ -18772,10 +18772,10 @@
         <v>24</v>
       </c>
       <c r="C334" s="32">
-        <v>41497</v>
+        <v>41503</v>
       </c>
       <c r="D334" s="5">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="E334" s="43" t="s">
         <v>12</v>
@@ -18790,10 +18790,10 @@
         <v>12</v>
       </c>
       <c r="I334" s="33">
-        <v>22612</v>
+        <v>22751</v>
       </c>
       <c r="J334" s="5">
-        <v>80.8</v>
+        <v>81.3</v>
       </c>
       <c r="K334" s="43" t="s">
         <v>12</v>
@@ -18808,7 +18808,7 @@
         <v>12</v>
       </c>
       <c r="O334" s="33">
-        <v>18885</v>
+        <v>18753</v>
       </c>
       <c r="P334" s="43" t="s">
         <v>12</v>
@@ -18825,7 +18825,7 @@
         <v>25</v>
       </c>
       <c r="C335" s="32">
-        <v>34092</v>
+        <v>34086</v>
       </c>
       <c r="D335" s="5">
         <v>107.9</v>
@@ -18843,10 +18843,10 @@
         <v>12</v>
       </c>
       <c r="I335" s="33">
-        <v>22332</v>
+        <v>22486</v>
       </c>
       <c r="J335" s="5">
-        <v>90.1</v>
+        <v>90.7</v>
       </c>
       <c r="K335" s="43" t="s">
         <v>12</v>
@@ -18861,7 +18861,7 @@
         <v>12</v>
       </c>
       <c r="O335" s="33">
-        <v>11760</v>
+        <v>11600</v>
       </c>
       <c r="P335" s="43" t="s">
         <v>12</v>
@@ -18878,7 +18878,7 @@
         <v>26</v>
       </c>
       <c r="C336" s="32">
-        <v>36658</v>
+        <v>36661</v>
       </c>
       <c r="D336" s="5">
         <v>98.1</v>
@@ -18896,10 +18896,10 @@
         <v>12</v>
       </c>
       <c r="I336" s="33">
-        <v>24510</v>
+        <v>24669</v>
       </c>
       <c r="J336" s="5">
-        <v>91</v>
+        <v>91.6</v>
       </c>
       <c r="K336" s="43" t="s">
         <v>12</v>
@@ -18914,7 +18914,7 @@
         <v>12</v>
       </c>
       <c r="O336" s="33">
-        <v>12148</v>
+        <v>11992</v>
       </c>
       <c r="P336" s="43" t="s">
         <v>12</v>
@@ -18931,7 +18931,7 @@
         <v>27</v>
       </c>
       <c r="C337" s="32">
-        <v>35674</v>
+        <v>35671</v>
       </c>
       <c r="D337" s="5">
         <v>103.5</v>
@@ -18949,10 +18949,10 @@
         <v>12</v>
       </c>
       <c r="I337" s="33">
-        <v>23896</v>
+        <v>24066</v>
       </c>
       <c r="J337" s="5">
-        <v>94</v>
+        <v>94.6</v>
       </c>
       <c r="K337" s="43" t="s">
         <v>12</v>
@@ -18967,7 +18967,7 @@
         <v>12</v>
       </c>
       <c r="O337" s="33">
-        <v>11779</v>
+        <v>11605</v>
       </c>
       <c r="P337" s="43" t="s">
         <v>12</v>
@@ -18984,10 +18984,10 @@
         <v>28</v>
       </c>
       <c r="C338" s="32">
-        <v>35667</v>
+        <v>35670</v>
       </c>
       <c r="D338" s="5">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="E338" s="43" t="s">
         <v>12</v>
@@ -19002,10 +19002,10 @@
         <v>12</v>
       </c>
       <c r="I338" s="33">
-        <v>25507</v>
+        <v>25706</v>
       </c>
       <c r="J338" s="5">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="K338" s="43" t="s">
         <v>12</v>
@@ -19020,7 +19020,7 @@
         <v>12</v>
       </c>
       <c r="O338" s="33">
-        <v>10160</v>
+        <v>9964</v>
       </c>
       <c r="P338" s="43" t="s">
         <v>12</v>
@@ -19037,10 +19037,10 @@
         <v>29</v>
       </c>
       <c r="C339" s="32">
-        <v>34601</v>
+        <v>34607</v>
       </c>
       <c r="D339" s="5">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="E339" s="43" t="s">
         <v>12</v>
@@ -19055,10 +19055,10 @@
         <v>12</v>
       </c>
       <c r="I339" s="33">
-        <v>25758</v>
+        <v>25954</v>
       </c>
       <c r="J339" s="5">
-        <v>101.3</v>
+        <v>102.1</v>
       </c>
       <c r="K339" s="43" t="s">
         <v>12</v>
@@ -19073,7 +19073,7 @@
         <v>12</v>
       </c>
       <c r="O339" s="33">
-        <v>8844</v>
+        <v>8653</v>
       </c>
       <c r="P339" s="43" t="s">
         <v>12</v>
@@ -19090,7 +19090,7 @@
         <v>30</v>
       </c>
       <c r="C340" s="32">
-        <v>38812</v>
+        <v>38811</v>
       </c>
       <c r="D340" s="5">
         <v>96.4</v>
@@ -19108,7 +19108,7 @@
         <v>12</v>
       </c>
       <c r="I340" s="33">
-        <v>26951</v>
+        <v>26955</v>
       </c>
       <c r="J340" s="5">
         <v>108.7</v>
@@ -19126,7 +19126,7 @@
         <v>12</v>
       </c>
       <c r="O340" s="33">
-        <v>11861</v>
+        <v>11856</v>
       </c>
       <c r="P340" s="43" t="s">
         <v>12</v>
@@ -19143,7 +19143,7 @@
         <v>31</v>
       </c>
       <c r="C341" s="32">
-        <v>37426</v>
+        <v>37437</v>
       </c>
       <c r="D341" s="5">
         <v>109</v>
@@ -19161,10 +19161,10 @@
         <v>12</v>
       </c>
       <c r="I341" s="33">
-        <v>28189</v>
+        <v>28352</v>
       </c>
       <c r="J341" s="5">
-        <v>120.5</v>
+        <v>121.2</v>
       </c>
       <c r="K341" s="43" t="s">
         <v>12</v>
@@ -19179,7 +19179,7 @@
         <v>12</v>
       </c>
       <c r="O341" s="33">
-        <v>9237</v>
+        <v>9085</v>
       </c>
       <c r="P341" s="43" t="s">
         <v>12</v>
@@ -19196,10 +19196,10 @@
         <v>32</v>
       </c>
       <c r="C342" s="32">
-        <v>39044</v>
+        <v>39234</v>
       </c>
       <c r="D342" s="5">
-        <v>114.5</v>
+        <v>115</v>
       </c>
       <c r="E342" s="43" t="s">
         <v>12</v>
@@ -19214,10 +19214,10 @@
         <v>12</v>
       </c>
       <c r="I342" s="33">
-        <v>26772</v>
+        <v>26925</v>
       </c>
       <c r="J342" s="5">
-        <v>110</v>
+        <v>110.7</v>
       </c>
       <c r="K342" s="43" t="s">
         <v>12</v>
@@ -19232,7 +19232,7 @@
         <v>12</v>
       </c>
       <c r="O342" s="33">
-        <v>12271</v>
+        <v>12310</v>
       </c>
       <c r="P342" s="43" t="s">
         <v>12</v>
@@ -19249,10 +19249,10 @@
         <v>33</v>
       </c>
       <c r="C343" s="37">
-        <v>39247</v>
+        <v>39579</v>
       </c>
       <c r="D343" s="38">
-        <v>99.4</v>
+        <v>100.2</v>
       </c>
       <c r="E343" s="44" t="s">
         <v>12</v>
@@ -19267,10 +19267,10 @@
         <v>12</v>
       </c>
       <c r="I343" s="40">
-        <v>29163</v>
+        <v>29403</v>
       </c>
       <c r="J343" s="38">
-        <v>104.6</v>
+        <v>105.4</v>
       </c>
       <c r="K343" s="44" t="s">
         <v>12</v>
@@ -19285,7 +19285,7 @@
         <v>12</v>
       </c>
       <c r="O343" s="40">
-        <v>10084</v>
+        <v>10176</v>
       </c>
       <c r="P343" s="44" t="s">
         <v>12</v>
@@ -19302,10 +19302,10 @@
         <v>22</v>
       </c>
       <c r="C344" s="25">
-        <v>29803</v>
+        <v>29897</v>
       </c>
       <c r="D344" s="26">
-        <v>104.2</v>
+        <v>104.5</v>
       </c>
       <c r="E344" s="42" t="s">
         <v>12</v>
@@ -19320,10 +19320,10 @@
         <v>12</v>
       </c>
       <c r="I344" s="28">
-        <v>22341</v>
+        <v>22533</v>
       </c>
       <c r="J344" s="26">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="K344" s="42" t="s">
         <v>12</v>
@@ -19338,7 +19338,7 @@
         <v>12</v>
       </c>
       <c r="O344" s="28">
-        <v>7462</v>
+        <v>7364</v>
       </c>
       <c r="P344" s="42" t="s">
         <v>12</v>
@@ -19355,10 +19355,10 @@
         <v>23</v>
       </c>
       <c r="C345" s="32">
-        <v>31710</v>
+        <v>31770</v>
       </c>
       <c r="D345" s="5">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E345" s="43" t="s">
         <v>12</v>
@@ -19373,10 +19373,10 @@
         <v>12</v>
       </c>
       <c r="I345" s="33">
-        <v>20751</v>
+        <v>20763</v>
       </c>
       <c r="J345" s="5">
-        <v>91.3</v>
+        <v>90.9</v>
       </c>
       <c r="K345" s="43" t="s">
         <v>12</v>
@@ -19391,7 +19391,7 @@
         <v>12</v>
       </c>
       <c r="O345" s="33">
-        <v>10959</v>
+        <v>11007</v>
       </c>
       <c r="P345" s="43" t="s">
         <v>12</v>
@@ -19408,10 +19408,10 @@
         <v>24</v>
       </c>
       <c r="C346" s="32">
-        <v>34493</v>
+        <v>35028</v>
       </c>
       <c r="D346" s="5">
-        <v>83.1</v>
+        <v>84.4</v>
       </c>
       <c r="E346" s="43" t="s">
         <v>12</v>
@@ -19426,10 +19426,10 @@
         <v>12</v>
       </c>
       <c r="I346" s="33">
-        <v>22808</v>
+        <v>23095</v>
       </c>
       <c r="J346" s="5">
-        <v>100.9</v>
+        <v>101.5</v>
       </c>
       <c r="K346" s="43" t="s">
         <v>12</v>
@@ -19444,7 +19444,7 @@
         <v>12</v>
       </c>
       <c r="O346" s="33">
-        <v>11685</v>
+        <v>11934</v>
       </c>
       <c r="P346" s="43" t="s">
         <v>12</v>
@@ -19461,10 +19461,10 @@
         <v>25</v>
       </c>
       <c r="C347" s="32">
-        <v>34063</v>
+        <v>33949</v>
       </c>
       <c r="D347" s="5">
-        <v>99.9</v>
+        <v>99.6</v>
       </c>
       <c r="E347" s="43" t="s">
         <v>12</v>
@@ -19479,10 +19479,10 @@
         <v>12</v>
       </c>
       <c r="I347" s="33">
-        <v>24763</v>
+        <v>25358</v>
       </c>
       <c r="J347" s="5">
-        <v>110.9</v>
+        <v>112.8</v>
       </c>
       <c r="K347" s="43" t="s">
         <v>12</v>
@@ -19497,7 +19497,7 @@
         <v>12</v>
       </c>
       <c r="O347" s="33">
-        <v>9301</v>
+        <v>8592</v>
       </c>
       <c r="P347" s="43" t="s">
         <v>12</v>
@@ -19514,10 +19514,10 @@
         <v>26</v>
       </c>
       <c r="C348" s="32">
-        <v>33157</v>
+        <v>32956</v>
       </c>
       <c r="D348" s="5">
-        <v>90.4</v>
+        <v>89.9</v>
       </c>
       <c r="E348" s="43" t="s">
         <v>12</v>
@@ -19532,10 +19532,10 @@
         <v>12</v>
       </c>
       <c r="I348" s="33">
-        <v>24344</v>
+        <v>25012</v>
       </c>
       <c r="J348" s="5">
-        <v>99.3</v>
+        <v>101.4</v>
       </c>
       <c r="K348" s="43" t="s">
         <v>12</v>
@@ -19550,7 +19550,7 @@
         <v>12</v>
       </c>
       <c r="O348" s="33">
-        <v>8813</v>
+        <v>7944</v>
       </c>
       <c r="P348" s="43" t="s">
         <v>12</v>
@@ -19567,10 +19567,10 @@
         <v>27</v>
       </c>
       <c r="C349" s="32">
-        <v>32815</v>
+        <v>32713</v>
       </c>
       <c r="D349" s="5">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="E349" s="43" t="s">
         <v>12</v>
@@ -19585,10 +19585,10 @@
         <v>12</v>
       </c>
       <c r="I349" s="33">
-        <v>23512</v>
+        <v>24187</v>
       </c>
       <c r="J349" s="5">
-        <v>98.4</v>
+        <v>100.5</v>
       </c>
       <c r="K349" s="43" t="s">
         <v>12</v>
@@ -19603,7 +19603,7 @@
         <v>12</v>
       </c>
       <c r="O349" s="33">
-        <v>9304</v>
+        <v>8526</v>
       </c>
       <c r="P349" s="43" t="s">
         <v>12</v>
@@ -19612,103 +19612,156 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="14" thickBot="1">
-      <c r="A350" s="35">
+    <row r="350" spans="1:17">
+      <c r="A350" s="30">
         <v>2025</v>
       </c>
-      <c r="B350" s="36" t="s">
+      <c r="B350" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C350" s="37">
-        <v>38049</v>
-      </c>
-      <c r="D350" s="38">
-        <v>106.7</v>
-      </c>
-      <c r="E350" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F350" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G350" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H350" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I350" s="40">
-        <v>24878</v>
-      </c>
-      <c r="J350" s="38">
-        <v>97.5</v>
-      </c>
-      <c r="K350" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="L350" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="M350" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N350" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="O350" s="40">
-        <v>13171</v>
-      </c>
-      <c r="P350" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q350" s="41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="351" spans="1:17">
-      <c r="A351" s="84"/>
-      <c r="B351" s="85"/>
-      <c r="C351" s="86"/>
-      <c r="D351" s="87"/>
-      <c r="E351" s="86"/>
-      <c r="F351" s="87"/>
-      <c r="G351" s="86"/>
-      <c r="H351" s="87"/>
-      <c r="I351" s="86"/>
-      <c r="J351" s="87"/>
-      <c r="K351" s="86"/>
-      <c r="L351" s="87"/>
-      <c r="M351" s="86"/>
-      <c r="N351" s="87"/>
-      <c r="O351" s="86"/>
-      <c r="P351" s="86"/>
-      <c r="Q351" s="86"/>
+      <c r="C350" s="32">
+        <v>38027</v>
+      </c>
+      <c r="D350" s="5">
+        <v>106.6</v>
+      </c>
+      <c r="E350" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G350" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H350" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I350" s="33">
+        <v>25313</v>
+      </c>
+      <c r="J350" s="5">
+        <v>98.5</v>
+      </c>
+      <c r="K350" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L350" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M350" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N350" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O350" s="33">
+        <v>12714</v>
+      </c>
+      <c r="P350" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q350" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" ht="14" thickBot="1">
+      <c r="A351" s="35">
+        <v>2025</v>
+      </c>
+      <c r="B351" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C351" s="37">
+        <v>31527</v>
+      </c>
+      <c r="D351" s="38">
+        <v>91.1</v>
+      </c>
+      <c r="E351" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F351" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G351" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H351" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I351" s="40">
+        <v>24061</v>
+      </c>
+      <c r="J351" s="38">
+        <v>92.7</v>
+      </c>
+      <c r="K351" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L351" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M351" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N351" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O351" s="40">
+        <v>7466</v>
+      </c>
+      <c r="P351" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q351" s="41" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="352" spans="1:17">
-      <c r="A352" s="45" t="s">
-        <v>14</v>
-      </c>
+      <c r="A352" s="84"/>
+      <c r="B352" s="85"/>
+      <c r="C352" s="86"/>
+      <c r="D352" s="87"/>
+      <c r="E352" s="86"/>
+      <c r="F352" s="87"/>
+      <c r="G352" s="86"/>
+      <c r="H352" s="87"/>
+      <c r="I352" s="86"/>
+      <c r="J352" s="87"/>
+      <c r="K352" s="86"/>
+      <c r="L352" s="87"/>
+      <c r="M352" s="86"/>
+      <c r="N352" s="87"/>
+      <c r="O352" s="86"/>
+      <c r="P352" s="86"/>
+      <c r="Q352" s="86"/>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="4" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="4"/>
-    </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="4"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -19730,11 +19783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C429D7-AF1E-364F-8EAE-FE2470EDC8DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C4C609-0BF2-2645-823B-211CE793603C}">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -26266,7 +26319,7 @@
         <v>35</v>
       </c>
       <c r="C128" s="28">
-        <v>101865</v>
+        <v>101878</v>
       </c>
       <c r="D128" s="26">
         <v>97.7</v>
@@ -26284,10 +26337,10 @@
         <v>12</v>
       </c>
       <c r="I128" s="28">
-        <v>66653</v>
+        <v>67033</v>
       </c>
       <c r="J128" s="26">
-        <v>89.3</v>
+        <v>89.8</v>
       </c>
       <c r="K128" s="42" t="s">
         <v>12</v>
@@ -26302,7 +26355,7 @@
         <v>12</v>
       </c>
       <c r="O128" s="28">
-        <v>35213</v>
+        <v>34845</v>
       </c>
       <c r="P128" s="42" t="s">
         <v>12</v>
@@ -26319,7 +26372,7 @@
         <v>36</v>
       </c>
       <c r="C129" s="33">
-        <v>106424</v>
+        <v>106417</v>
       </c>
       <c r="D129" s="5">
         <v>102.9</v>
@@ -26337,10 +26390,10 @@
         <v>12</v>
       </c>
       <c r="I129" s="33">
-        <v>70738</v>
+        <v>71221</v>
       </c>
       <c r="J129" s="5">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="K129" s="43" t="s">
         <v>12</v>
@@ -26355,7 +26408,7 @@
         <v>12</v>
       </c>
       <c r="O129" s="33">
-        <v>35686</v>
+        <v>35196</v>
       </c>
       <c r="P129" s="43" t="s">
         <v>12</v>
@@ -26372,7 +26425,7 @@
         <v>37</v>
       </c>
       <c r="C130" s="33">
-        <v>109080</v>
+        <v>109089</v>
       </c>
       <c r="D130" s="5">
         <v>100</v>
@@ -26390,10 +26443,10 @@
         <v>12</v>
       </c>
       <c r="I130" s="33">
-        <v>78215</v>
+        <v>78615</v>
       </c>
       <c r="J130" s="5">
-        <v>103.3</v>
+        <v>103.9</v>
       </c>
       <c r="K130" s="43" t="s">
         <v>12</v>
@@ -26408,7 +26461,7 @@
         <v>12</v>
       </c>
       <c r="O130" s="33">
-        <v>30865</v>
+        <v>30474</v>
       </c>
       <c r="P130" s="43" t="s">
         <v>12</v>
@@ -26425,10 +26478,10 @@
         <v>38</v>
       </c>
       <c r="C131" s="40">
-        <v>115717</v>
+        <v>116250</v>
       </c>
       <c r="D131" s="38">
-        <v>107.2</v>
+        <v>107.7</v>
       </c>
       <c r="E131" s="44" t="s">
         <v>12</v>
@@ -26443,10 +26496,10 @@
         <v>12</v>
       </c>
       <c r="I131" s="40">
-        <v>84125</v>
+        <v>84679</v>
       </c>
       <c r="J131" s="38">
-        <v>111.2</v>
+        <v>112</v>
       </c>
       <c r="K131" s="44" t="s">
         <v>12</v>
@@ -26461,7 +26514,7 @@
         <v>12</v>
       </c>
       <c r="O131" s="40">
-        <v>31592</v>
+        <v>31571</v>
       </c>
       <c r="P131" s="44" t="s">
         <v>12</v>
@@ -26478,10 +26531,10 @@
         <v>35</v>
       </c>
       <c r="C132" s="28">
-        <v>96007</v>
+        <v>96696</v>
       </c>
       <c r="D132" s="26">
-        <v>94.2</v>
+        <v>94.9</v>
       </c>
       <c r="E132" s="42" t="s">
         <v>12</v>
@@ -26496,10 +26549,10 @@
         <v>12</v>
       </c>
       <c r="I132" s="28">
-        <v>65900</v>
+        <v>66391</v>
       </c>
       <c r="J132" s="26">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="K132" s="42" t="s">
         <v>12</v>
@@ -26514,7 +26567,7 @@
         <v>12</v>
       </c>
       <c r="O132" s="28">
-        <v>30106</v>
+        <v>30305</v>
       </c>
       <c r="P132" s="42" t="s">
         <v>12</v>
@@ -26531,10 +26584,10 @@
         <v>36</v>
       </c>
       <c r="C133" s="40">
-        <v>100035</v>
+        <v>99619</v>
       </c>
       <c r="D133" s="38">
-        <v>94</v>
+        <v>93.6</v>
       </c>
       <c r="E133" s="44" t="s">
         <v>12</v>
@@ -26549,10 +26602,10 @@
         <v>12</v>
       </c>
       <c r="I133" s="40">
-        <v>72618</v>
+        <v>74557</v>
       </c>
       <c r="J133" s="38">
-        <v>102.7</v>
+        <v>104.7</v>
       </c>
       <c r="K133" s="44" t="s">
         <v>12</v>
@@ -26567,7 +26620,7 @@
         <v>12</v>
       </c>
       <c r="O133" s="40">
-        <v>27417</v>
+        <v>25062</v>
       </c>
       <c r="P133" s="44" t="s">
         <v>12</v>
@@ -26622,7 +26675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D01226-4425-1349-BC3C-11CC45E2E370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD52F4-0D1E-6041-874E-65498DE65844}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -28286,10 +28339,10 @@
         <v>2024</v>
       </c>
       <c r="B38" s="78">
-        <v>433087</v>
+        <v>433634</v>
       </c>
       <c r="C38" s="79">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D38" s="80" t="s">
         <v>12</v>
@@ -28304,10 +28357,10 @@
         <v>12</v>
       </c>
       <c r="H38" s="78">
-        <v>299731</v>
+        <v>301548</v>
       </c>
       <c r="I38" s="79">
-        <v>98.9</v>
+        <v>99.5</v>
       </c>
       <c r="J38" s="80" t="s">
         <v>12</v>
@@ -28322,7 +28375,7 @@
         <v>12</v>
       </c>
       <c r="N38" s="78">
-        <v>133356</v>
+        <v>132086</v>
       </c>
       <c r="O38" s="80" t="s">
         <v>12</v>
